--- a/MSRA实习/实习准备/personal information.xlsx
+++ b/MSRA实习/实习准备/personal information.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-xuzha\AppData\Local\Microsoft\Windows\INetCache\Content.Outlook\M3ANXRVR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal-Profile\MSRA实习\实习准备\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11988"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="71">
   <si>
     <t>ID Type</t>
   </si>
@@ -218,26 +218,117 @@
       <t>系</t>
     </r>
   </si>
+  <si>
+    <t>中国</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bachelor</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>清华大学</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息科学技术学院</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机科学与技术系</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然语言处理</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐华</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机科学与技术系</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>副教授</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>xuhua@tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t>13810102923</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-62796450</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>清华大学信息科学技术大楼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>B4-506</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>zjythu@163.com</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>18810918292</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0535-6637090</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市海淀区清华大学紫荆公寓2号楼303A</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\/m"/>
+    <numFmt numFmtId="176" formatCode="yyyy\/m"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -256,7 +347,7 @@
     <font>
       <sz val="18"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -264,7 +355,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -279,6 +370,25 @@
       <b/>
       <sz val="9"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF555555"/>
+      <name val="Verdana"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -351,7 +461,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -362,7 +472,7 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -378,7 +488,7 @@
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -416,10 +526,14 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -435,7 +549,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -699,29 +813,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AB10" sqref="AB10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" customWidth="1"/>
-    <col min="14" max="14" width="17.140625" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" customWidth="1"/>
-    <col min="16" max="16" width="8.5703125" customWidth="1"/>
-    <col min="17" max="17" width="16.42578125" customWidth="1"/>
-    <col min="19" max="19" width="18.7109375" customWidth="1"/>
-    <col min="20" max="20" width="22.7109375" customWidth="1"/>
-    <col min="21" max="21" width="13.7109375" customWidth="1"/>
-    <col min="22" max="22" width="52.7109375" customWidth="1"/>
-    <col min="23" max="23" width="22.140625" customWidth="1"/>
-    <col min="24" max="24" width="22.28515625" customWidth="1"/>
-    <col min="25" max="25" width="16.28515625" customWidth="1"/>
-    <col min="26" max="26" width="46.5703125" customWidth="1"/>
+    <col min="12" max="13" width="14.88671875" customWidth="1"/>
+    <col min="14" max="14" width="17.109375" customWidth="1"/>
+    <col min="15" max="15" width="18.6640625" customWidth="1"/>
+    <col min="16" max="16" width="8.5546875" customWidth="1"/>
+    <col min="17" max="17" width="16.44140625" customWidth="1"/>
+    <col min="19" max="19" width="18.6640625" customWidth="1"/>
+    <col min="20" max="20" width="22.6640625" customWidth="1"/>
+    <col min="21" max="21" width="13.6640625" customWidth="1"/>
+    <col min="22" max="22" width="52.6640625" customWidth="1"/>
+    <col min="23" max="23" width="22.109375" customWidth="1"/>
+    <col min="24" max="24" width="22.33203125" customWidth="1"/>
+    <col min="25" max="25" width="16.33203125" customWidth="1"/>
+    <col min="26" max="26" width="46.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -1053,29 +1168,75 @@
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="16"/>
+      <c r="E10" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="3">
+        <v>34626</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="4">
+        <v>41518</v>
+      </c>
+      <c r="J10" s="4">
+        <v>42887</v>
+      </c>
+      <c r="K10" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="M10" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="N10" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="O10" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="P10" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q10" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="R10" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="S10" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="W10" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y10" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z10" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA10" s="16">
+        <v>100084</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1086,11 +1247,13 @@
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="P2:V2"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="S4" r:id="rId1"/>
     <hyperlink ref="W4" r:id="rId2"/>
+    <hyperlink ref="W10" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>